--- a/추가피처데이터/투자자별매매동향(수급)/323410.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/323410.xlsx
@@ -1598,43 +1598,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1866,94 +1866,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>14523</v>
+        <v>362317</v>
       </c>
       <c r="C6" s="7">
-        <v>11519</v>
+        <v>287792</v>
       </c>
       <c r="D6" s="9">
-        <v>3004</v>
+        <v>74524</v>
       </c>
       <c r="E6" s="11">
-        <v>13235</v>
+        <v>326399</v>
       </c>
       <c r="F6" s="13">
-        <v>19914</v>
+        <v>492782</v>
       </c>
       <c r="G6" s="15">
-        <v>-6678</v>
+        <v>-166383</v>
       </c>
       <c r="H6" s="17">
-        <v>7477</v>
+        <v>185732</v>
       </c>
       <c r="I6" s="19">
-        <v>3758</v>
+        <v>92724</v>
       </c>
       <c r="J6" s="21">
-        <v>3719</v>
+        <v>93009</v>
       </c>
       <c r="K6" s="23">
-        <v>2739</v>
+        <v>67901</v>
       </c>
       <c r="L6" s="25">
-        <v>1995</v>
+        <v>49236</v>
       </c>
       <c r="M6" s="27">
-        <v>744</v>
+        <v>18665</v>
       </c>
       <c r="N6" s="29">
-        <v>412</v>
+        <v>10253</v>
       </c>
       <c r="O6" s="31">
-        <v>85</v>
+        <v>2078</v>
       </c>
       <c r="P6" s="33">
-        <v>326</v>
+        <v>8175</v>
       </c>
       <c r="Q6" s="35">
-        <v>895</v>
+        <v>22457</v>
       </c>
       <c r="R6" s="37">
-        <v>194</v>
+        <v>4836</v>
       </c>
       <c r="S6" s="39">
-        <v>701</v>
+        <v>17621</v>
       </c>
       <c r="T6" s="41">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U6" s="43">
         <v>0</v>
       </c>
       <c r="V6" s="45">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="W6" s="47">
-        <v>23</v>
+        <v>580</v>
       </c>
       <c r="X6" s="49">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="51">
-        <v>21</v>
+        <v>521</v>
       </c>
       <c r="Z6" s="53">
-        <v>2228</v>
+        <v>55499</v>
       </c>
       <c r="AA6" s="55">
-        <v>881</v>
+        <v>21750</v>
       </c>
       <c r="AB6" s="57">
-        <v>1347</v>
+        <v>33748</v>
       </c>
       <c r="AC6" s="59">
-        <v>1180</v>
+        <v>29023</v>
       </c>
       <c r="AD6" s="61">
-        <v>601</v>
+        <v>14762</v>
       </c>
       <c r="AE6" s="63">
-        <v>579</v>
+        <v>14260</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>89</v>
+        <v>2208</v>
       </c>
       <c r="AJ6" s="73">
-        <v>134</v>
+        <v>3358</v>
       </c>
       <c r="AK6" s="75">
-        <v>-45</v>
+        <v>-1150</v>
       </c>
       <c r="AL6" s="77">
-        <v>35324</v>
+        <v>876656</v>
       </c>
     </row>
     <row r="7">
@@ -1982,94 +1982,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>7251</v>
+        <v>167798</v>
       </c>
       <c r="C7" s="7">
-        <v>8857</v>
+        <v>204157</v>
       </c>
       <c r="D7" s="9">
-        <v>-1607</v>
+        <v>-36359</v>
       </c>
       <c r="E7" s="11">
-        <v>13835</v>
+        <v>318525</v>
       </c>
       <c r="F7" s="13">
-        <v>12563</v>
+        <v>290859</v>
       </c>
       <c r="G7" s="15">
-        <v>1272</v>
+        <v>27666</v>
       </c>
       <c r="H7" s="17">
-        <v>4581</v>
+        <v>106216</v>
       </c>
       <c r="I7" s="19">
-        <v>4246</v>
+        <v>97479</v>
       </c>
       <c r="J7" s="21">
-        <v>334</v>
+        <v>8737</v>
       </c>
       <c r="K7" s="23">
-        <v>2285</v>
+        <v>52782</v>
       </c>
       <c r="L7" s="25">
-        <v>2231</v>
+        <v>51262</v>
       </c>
       <c r="M7" s="27">
-        <v>54</v>
+        <v>1519</v>
       </c>
       <c r="N7" s="29">
-        <v>217</v>
+        <v>5115</v>
       </c>
       <c r="O7" s="31">
-        <v>174</v>
+        <v>3992</v>
       </c>
       <c r="P7" s="33">
-        <v>43</v>
+        <v>1123</v>
       </c>
       <c r="Q7" s="35">
-        <v>131</v>
+        <v>3070</v>
       </c>
       <c r="R7" s="37">
-        <v>270</v>
+        <v>6195</v>
       </c>
       <c r="S7" s="39">
-        <v>-139</v>
+        <v>-3125</v>
       </c>
       <c r="T7" s="41">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="U7" s="43">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="V7" s="45">
-        <v>-5</v>
+        <v>-115</v>
       </c>
       <c r="W7" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="49">
-        <v>23</v>
+        <v>521</v>
       </c>
       <c r="Y7" s="51">
-        <v>-23</v>
+        <v>-520</v>
       </c>
       <c r="Z7" s="53">
-        <v>1206</v>
+        <v>27903</v>
       </c>
       <c r="AA7" s="55">
-        <v>936</v>
+        <v>21606</v>
       </c>
       <c r="AB7" s="57">
-        <v>270</v>
+        <v>6297</v>
       </c>
       <c r="AC7" s="59">
-        <v>738</v>
+        <v>17268</v>
       </c>
       <c r="AD7" s="61">
-        <v>603</v>
+        <v>13712</v>
       </c>
       <c r="AE7" s="63">
-        <v>135</v>
+        <v>3557</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>125</v>
+        <v>2827</v>
       </c>
       <c r="AJ7" s="73">
-        <v>124</v>
+        <v>2871</v>
       </c>
       <c r="AK7" s="75">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="AL7" s="77">
-        <v>25791</v>
+        <v>595366</v>
       </c>
     </row>
     <row r="8">
@@ -2098,94 +2098,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>10632</v>
+        <v>262054</v>
       </c>
       <c r="C8" s="7">
-        <v>11550</v>
+        <v>285196</v>
       </c>
       <c r="D8" s="9">
-        <v>-918</v>
+        <v>-23143</v>
       </c>
       <c r="E8" s="11">
-        <v>14404</v>
+        <v>355896</v>
       </c>
       <c r="F8" s="13">
-        <v>13548</v>
+        <v>336019</v>
       </c>
       <c r="G8" s="15">
-        <v>856</v>
+        <v>19876</v>
       </c>
       <c r="H8" s="17">
-        <v>5397</v>
+        <v>134566</v>
       </c>
       <c r="I8" s="19">
-        <v>5263</v>
+        <v>129407</v>
       </c>
       <c r="J8" s="21">
-        <v>134</v>
+        <v>5159</v>
       </c>
       <c r="K8" s="23">
-        <v>2920</v>
+        <v>72789</v>
       </c>
       <c r="L8" s="25">
-        <v>2520</v>
+        <v>62316</v>
       </c>
       <c r="M8" s="27">
-        <v>401</v>
+        <v>10472</v>
       </c>
       <c r="N8" s="29">
-        <v>166</v>
+        <v>4114</v>
       </c>
       <c r="O8" s="31">
-        <v>188</v>
+        <v>4608</v>
       </c>
       <c r="P8" s="33">
-        <v>-22</v>
+        <v>-494</v>
       </c>
       <c r="Q8" s="35">
-        <v>296</v>
+        <v>7435</v>
       </c>
       <c r="R8" s="37">
-        <v>192</v>
+        <v>4710</v>
       </c>
       <c r="S8" s="39">
-        <v>104</v>
+        <v>2725</v>
       </c>
       <c r="T8" s="41">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="U8" s="43">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="V8" s="45">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="W8" s="47">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="X8" s="49">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="51">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="Z8" s="53">
-        <v>1313</v>
+        <v>32846</v>
       </c>
       <c r="AA8" s="55">
-        <v>1422</v>
+        <v>34718</v>
       </c>
       <c r="AB8" s="57">
-        <v>-108</v>
+        <v>-1872</v>
       </c>
       <c r="AC8" s="59">
-        <v>682</v>
+        <v>16877</v>
       </c>
       <c r="AD8" s="61">
-        <v>938</v>
+        <v>22947</v>
       </c>
       <c r="AE8" s="63">
-        <v>-256</v>
+        <v>-6070</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2197,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>48</v>
+        <v>1206</v>
       </c>
       <c r="AJ8" s="73">
-        <v>119</v>
+        <v>3099</v>
       </c>
       <c r="AK8" s="75">
-        <v>-71</v>
+        <v>-1892</v>
       </c>
       <c r="AL8" s="77">
-        <v>30480</v>
+        <v>753721</v>
       </c>
     </row>
     <row r="9">
@@ -2214,94 +2214,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>11707</v>
+        <v>312068</v>
       </c>
       <c r="C9" s="7">
-        <v>15145</v>
+        <v>401831</v>
       </c>
       <c r="D9" s="9">
-        <v>-3438</v>
+        <v>-89763</v>
       </c>
       <c r="E9" s="11">
-        <v>23667</v>
+        <v>630684</v>
       </c>
       <c r="F9" s="13">
-        <v>19556</v>
+        <v>524094</v>
       </c>
       <c r="G9" s="15">
-        <v>4111</v>
+        <v>106590</v>
       </c>
       <c r="H9" s="17">
-        <v>4940</v>
+        <v>132314</v>
       </c>
       <c r="I9" s="19">
-        <v>5570</v>
+        <v>147891</v>
       </c>
       <c r="J9" s="21">
-        <v>-630</v>
+        <v>-15576</v>
       </c>
       <c r="K9" s="23">
-        <v>2307</v>
+        <v>61796</v>
       </c>
       <c r="L9" s="25">
-        <v>3111</v>
+        <v>82895</v>
       </c>
       <c r="M9" s="27">
-        <v>-804</v>
+        <v>-21099</v>
       </c>
       <c r="N9" s="29">
-        <v>165</v>
+        <v>4559</v>
       </c>
       <c r="O9" s="31">
-        <v>199</v>
+        <v>5197</v>
       </c>
       <c r="P9" s="33">
-        <v>-34</v>
+        <v>-639</v>
       </c>
       <c r="Q9" s="35">
-        <v>344</v>
+        <v>9209</v>
       </c>
       <c r="R9" s="37">
-        <v>306</v>
+        <v>8119</v>
       </c>
       <c r="S9" s="39">
-        <v>38</v>
+        <v>1090</v>
       </c>
       <c r="T9" s="41">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U9" s="43">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="V9" s="45">
-        <v>-2</v>
+        <v>-56</v>
       </c>
       <c r="W9" s="47">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="X9" s="49">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="Y9" s="51">
-        <v>-4</v>
+        <v>-108</v>
       </c>
       <c r="Z9" s="53">
-        <v>1435</v>
+        <v>38344</v>
       </c>
       <c r="AA9" s="55">
-        <v>1148</v>
+        <v>30362</v>
       </c>
       <c r="AB9" s="57">
-        <v>287</v>
+        <v>7983</v>
       </c>
       <c r="AC9" s="59">
-        <v>686</v>
+        <v>18335</v>
       </c>
       <c r="AD9" s="61">
-        <v>797</v>
+        <v>21082</v>
       </c>
       <c r="AE9" s="63">
-        <v>-111</v>
+        <v>-2748</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2313,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>204</v>
+        <v>5377</v>
       </c>
       <c r="AJ9" s="73">
-        <v>247</v>
+        <v>6628</v>
       </c>
       <c r="AK9" s="75">
-        <v>-43</v>
+        <v>-1251</v>
       </c>
       <c r="AL9" s="77">
-        <v>40517</v>
+        <v>1080444</v>
       </c>
     </row>
     <row r="10">
@@ -2330,94 +2330,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>12840</v>
+        <v>353784</v>
       </c>
       <c r="C10" s="7">
-        <v>9267</v>
+        <v>254956</v>
       </c>
       <c r="D10" s="9">
-        <v>3573</v>
+        <v>98827</v>
       </c>
       <c r="E10" s="11">
-        <v>23818</v>
+        <v>661157</v>
       </c>
       <c r="F10" s="13">
-        <v>28588</v>
+        <v>793874</v>
       </c>
       <c r="G10" s="15">
-        <v>-4770</v>
+        <v>-132716</v>
       </c>
       <c r="H10" s="17">
-        <v>7368</v>
+        <v>203296</v>
       </c>
       <c r="I10" s="19">
-        <v>6242</v>
+        <v>171305</v>
       </c>
       <c r="J10" s="21">
-        <v>1127</v>
+        <v>31990</v>
       </c>
       <c r="K10" s="23">
-        <v>3355</v>
+        <v>91721</v>
       </c>
       <c r="L10" s="25">
-        <v>2863</v>
+        <v>78223</v>
       </c>
       <c r="M10" s="27">
-        <v>492</v>
+        <v>13497</v>
       </c>
       <c r="N10" s="29">
-        <v>375</v>
+        <v>10319</v>
       </c>
       <c r="O10" s="31">
-        <v>125</v>
+        <v>3462</v>
       </c>
       <c r="P10" s="33">
-        <v>250</v>
+        <v>6856</v>
       </c>
       <c r="Q10" s="35">
-        <v>993</v>
+        <v>27877</v>
       </c>
       <c r="R10" s="37">
-        <v>372</v>
+        <v>10265</v>
       </c>
       <c r="S10" s="39">
-        <v>621</v>
+        <v>17611</v>
       </c>
       <c r="T10" s="41">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="U10" s="43">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="V10" s="45">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="W10" s="47">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="X10" s="49">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="51">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="Z10" s="53">
-        <v>1664</v>
+        <v>45845</v>
       </c>
       <c r="AA10" s="55">
-        <v>1783</v>
+        <v>49236</v>
       </c>
       <c r="AB10" s="57">
-        <v>-120</v>
+        <v>-3392</v>
       </c>
       <c r="AC10" s="59">
-        <v>969</v>
+        <v>27206</v>
       </c>
       <c r="AD10" s="61">
-        <v>1097</v>
+        <v>30087</v>
       </c>
       <c r="AE10" s="63">
-        <v>-127</v>
+        <v>-2881</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2429,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>184</v>
+        <v>5123</v>
       </c>
       <c r="AJ10" s="73">
-        <v>114</v>
+        <v>3224</v>
       </c>
       <c r="AK10" s="75">
-        <v>70</v>
+        <v>1899</v>
       </c>
       <c r="AL10" s="77">
-        <v>44211</v>
+        <v>1223360</v>
       </c>
     </row>
     <row r="11">
@@ -2446,94 +2446,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>16914</v>
+        <v>454854</v>
       </c>
       <c r="C11" s="7">
-        <v>15471</v>
+        <v>415398</v>
       </c>
       <c r="D11" s="9">
-        <v>1443</v>
+        <v>39455</v>
       </c>
       <c r="E11" s="11">
-        <v>40626</v>
+        <v>1095271</v>
       </c>
       <c r="F11" s="13">
-        <v>42771</v>
+        <v>1155725</v>
       </c>
       <c r="G11" s="15">
-        <v>-2145</v>
+        <v>-60454</v>
       </c>
       <c r="H11" s="17">
-        <v>138010</v>
+        <v>3641859</v>
       </c>
       <c r="I11" s="19">
-        <v>137247</v>
+        <v>3619327</v>
       </c>
       <c r="J11" s="21">
-        <v>763</v>
+        <v>22531</v>
       </c>
       <c r="K11" s="23">
-        <v>133447</v>
+        <v>3517553</v>
       </c>
       <c r="L11" s="25">
-        <v>113693</v>
+        <v>2996825</v>
       </c>
       <c r="M11" s="27">
-        <v>19754</v>
+        <v>520728</v>
       </c>
       <c r="N11" s="29">
-        <v>223</v>
+        <v>6009</v>
       </c>
       <c r="O11" s="31">
-        <v>186</v>
+        <v>4898</v>
       </c>
       <c r="P11" s="33">
-        <v>37</v>
+        <v>1112</v>
       </c>
       <c r="Q11" s="35">
-        <v>362</v>
+        <v>9697</v>
       </c>
       <c r="R11" s="37">
-        <v>389</v>
+        <v>10333</v>
       </c>
       <c r="S11" s="39">
-        <v>-27</v>
+        <v>-636</v>
       </c>
       <c r="T11" s="41">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="U11" s="43">
-        <v>56</v>
+        <v>1585</v>
       </c>
       <c r="V11" s="45">
-        <v>-54</v>
+        <v>-1544</v>
       </c>
       <c r="W11" s="47">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="X11" s="49">
-        <v>19052</v>
+        <v>502029</v>
       </c>
       <c r="Y11" s="51">
-        <v>-19044</v>
+        <v>-501798</v>
       </c>
       <c r="Z11" s="53">
-        <v>3150</v>
+        <v>86084</v>
       </c>
       <c r="AA11" s="55">
-        <v>2779</v>
+        <v>74975</v>
       </c>
       <c r="AB11" s="57">
-        <v>372</v>
+        <v>11108</v>
       </c>
       <c r="AC11" s="59">
-        <v>817</v>
+        <v>22243</v>
       </c>
       <c r="AD11" s="61">
-        <v>1092</v>
+        <v>28682</v>
       </c>
       <c r="AE11" s="63">
-        <v>-275</v>
+        <v>-6439</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2545,16 +2545,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>265</v>
+        <v>7262</v>
       </c>
       <c r="AJ11" s="73">
-        <v>326</v>
+        <v>8795</v>
       </c>
       <c r="AK11" s="75">
-        <v>-62</v>
+        <v>-1532</v>
       </c>
       <c r="AL11" s="77">
-        <v>195815</v>
+        <v>5199245</v>
       </c>
     </row>
     <row r="12">
@@ -2562,94 +2562,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>41990</v>
+        <v>1036129</v>
       </c>
       <c r="C12" s="7">
-        <v>37847</v>
+        <v>921589</v>
       </c>
       <c r="D12" s="9">
-        <v>4143</v>
+        <v>114540</v>
       </c>
       <c r="E12" s="11">
-        <v>122304</v>
+        <v>3020597</v>
       </c>
       <c r="F12" s="13">
-        <v>124569</v>
+        <v>3077920</v>
       </c>
       <c r="G12" s="15">
-        <v>-2265</v>
+        <v>-57323</v>
       </c>
       <c r="H12" s="17">
-        <v>11977</v>
+        <v>288583</v>
       </c>
       <c r="I12" s="19">
-        <v>13921</v>
+        <v>347174</v>
       </c>
       <c r="J12" s="21">
-        <v>-1944</v>
+        <v>-58591</v>
       </c>
       <c r="K12" s="23">
-        <v>4882</v>
+        <v>120382</v>
       </c>
       <c r="L12" s="25">
-        <v>5785</v>
+        <v>141988</v>
       </c>
       <c r="M12" s="27">
-        <v>-903</v>
+        <v>-21605</v>
       </c>
       <c r="N12" s="29">
-        <v>593</v>
+        <v>13787</v>
       </c>
       <c r="O12" s="31">
-        <v>348</v>
+        <v>8750</v>
       </c>
       <c r="P12" s="33">
-        <v>245</v>
+        <v>5037</v>
       </c>
       <c r="Q12" s="35">
-        <v>1430</v>
+        <v>33857</v>
       </c>
       <c r="R12" s="37">
-        <v>751</v>
+        <v>19120</v>
       </c>
       <c r="S12" s="39">
-        <v>679</v>
+        <v>14737</v>
       </c>
       <c r="T12" s="41">
-        <v>34</v>
+        <v>796</v>
       </c>
       <c r="U12" s="43">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="V12" s="45">
-        <v>25</v>
+        <v>557</v>
       </c>
       <c r="W12" s="47">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="X12" s="49">
-        <v>23</v>
+        <v>556</v>
       </c>
       <c r="Y12" s="51">
-        <v>-12</v>
+        <v>-326</v>
       </c>
       <c r="Z12" s="53">
-        <v>3506</v>
+        <v>85597</v>
       </c>
       <c r="AA12" s="55">
-        <v>3968</v>
+        <v>101679</v>
       </c>
       <c r="AB12" s="57">
-        <v>-462</v>
+        <v>-16082</v>
       </c>
       <c r="AC12" s="59">
-        <v>1521</v>
+        <v>33932</v>
       </c>
       <c r="AD12" s="61">
-        <v>3038</v>
+        <v>74841</v>
       </c>
       <c r="AE12" s="63">
-        <v>-1517</v>
+        <v>-40909</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2661,16 +2661,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>772</v>
+        <v>19768</v>
       </c>
       <c r="AJ12" s="73">
-        <v>706</v>
+        <v>18395</v>
       </c>
       <c r="AK12" s="75">
-        <v>66</v>
+        <v>1373</v>
       </c>
       <c r="AL12" s="77">
-        <v>177043</v>
+        <v>4365077</v>
       </c>
     </row>
     <row r="13">
@@ -2678,58 +2678,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>19152</v>
+        <v>338123</v>
       </c>
       <c r="C13" s="7">
-        <v>22715</v>
+        <v>396817</v>
       </c>
       <c r="D13" s="9">
-        <v>-3563</v>
+        <v>-58694</v>
       </c>
       <c r="E13" s="11">
-        <v>38469</v>
+        <v>671907</v>
       </c>
       <c r="F13" s="13">
-        <v>33339</v>
+        <v>585133</v>
       </c>
       <c r="G13" s="15">
-        <v>5130</v>
+        <v>86773</v>
       </c>
       <c r="H13" s="17">
-        <v>6821</v>
+        <v>119639</v>
       </c>
       <c r="I13" s="19">
-        <v>8373</v>
+        <v>147226</v>
       </c>
       <c r="J13" s="21">
-        <v>-1552</v>
+        <v>-27586</v>
       </c>
       <c r="K13" s="23">
-        <v>2492</v>
+        <v>43261</v>
       </c>
       <c r="L13" s="25">
-        <v>2831</v>
+        <v>50035</v>
       </c>
       <c r="M13" s="27">
-        <v>-339</v>
+        <v>-6773</v>
       </c>
       <c r="N13" s="29">
-        <v>130</v>
+        <v>2307</v>
       </c>
       <c r="O13" s="31">
-        <v>117</v>
+        <v>2114</v>
       </c>
       <c r="P13" s="33">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="35">
-        <v>471</v>
+        <v>8411</v>
       </c>
       <c r="R13" s="37">
-        <v>240</v>
+        <v>4312</v>
       </c>
       <c r="S13" s="39">
-        <v>231</v>
+        <v>4099</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2741,31 +2741,31 @@
         <v>0</v>
       </c>
       <c r="W13" s="47">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="X13" s="49">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="Y13" s="51">
-        <v>-6</v>
+        <v>-87</v>
       </c>
       <c r="Z13" s="53">
-        <v>1812</v>
+        <v>32100</v>
       </c>
       <c r="AA13" s="55">
-        <v>3042</v>
+        <v>53274</v>
       </c>
       <c r="AB13" s="57">
-        <v>-1230</v>
+        <v>-21175</v>
       </c>
       <c r="AC13" s="59">
-        <v>1913</v>
+        <v>33490</v>
       </c>
       <c r="AD13" s="61">
-        <v>2135</v>
+        <v>37333</v>
       </c>
       <c r="AE13" s="63">
-        <v>-222</v>
+        <v>-3844</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2777,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>143</v>
+        <v>2474</v>
       </c>
       <c r="AJ13" s="73">
-        <v>158</v>
+        <v>2967</v>
       </c>
       <c r="AK13" s="75">
-        <v>-15</v>
+        <v>-494</v>
       </c>
       <c r="AL13" s="77">
-        <v>64585</v>
+        <v>1132142</v>
       </c>
     </row>
     <row r="14">
@@ -2794,58 +2794,58 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>15025</v>
+        <v>356827</v>
       </c>
       <c r="C14" s="7">
-        <v>15705</v>
+        <v>370549</v>
       </c>
       <c r="D14" s="9">
-        <v>-680</v>
+        <v>-13722</v>
       </c>
       <c r="E14" s="11">
-        <v>23017</v>
+        <v>549940</v>
       </c>
       <c r="F14" s="13">
-        <v>20612</v>
+        <v>493068</v>
       </c>
       <c r="G14" s="15">
-        <v>2405</v>
+        <v>56872</v>
       </c>
       <c r="H14" s="17">
-        <v>5626</v>
+        <v>133343</v>
       </c>
       <c r="I14" s="19">
-        <v>7317</v>
+        <v>175629</v>
       </c>
       <c r="J14" s="21">
-        <v>-1691</v>
+        <v>-42286</v>
       </c>
       <c r="K14" s="23">
-        <v>2841</v>
+        <v>68471</v>
       </c>
       <c r="L14" s="25">
-        <v>2062</v>
+        <v>50060</v>
       </c>
       <c r="M14" s="27">
-        <v>779</v>
+        <v>18411</v>
       </c>
       <c r="N14" s="29">
-        <v>56</v>
+        <v>1257</v>
       </c>
       <c r="O14" s="31">
-        <v>176</v>
+        <v>4276</v>
       </c>
       <c r="P14" s="33">
-        <v>-121</v>
+        <v>-3019</v>
       </c>
       <c r="Q14" s="35">
-        <v>348</v>
+        <v>8032</v>
       </c>
       <c r="R14" s="37">
-        <v>452</v>
+        <v>10703</v>
       </c>
       <c r="S14" s="39">
-        <v>-103</v>
+        <v>-2671</v>
       </c>
       <c r="T14" s="41">
         <v>0</v>
@@ -2857,31 +2857,31 @@
         <v>0</v>
       </c>
       <c r="W14" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="49">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="51">
-        <v>-3</v>
+        <v>-63</v>
       </c>
       <c r="Z14" s="53">
-        <v>1357</v>
+        <v>32266</v>
       </c>
       <c r="AA14" s="55">
-        <v>2507</v>
+        <v>59140</v>
       </c>
       <c r="AB14" s="57">
-        <v>-1150</v>
+        <v>-26874</v>
       </c>
       <c r="AC14" s="59">
-        <v>1024</v>
+        <v>23316</v>
       </c>
       <c r="AD14" s="61">
-        <v>2117</v>
+        <v>51387</v>
       </c>
       <c r="AE14" s="63">
-        <v>-1093</v>
+        <v>-28071</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2893,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>138</v>
+        <v>3400</v>
       </c>
       <c r="AJ14" s="73">
-        <v>171</v>
+        <v>4264</v>
       </c>
       <c r="AK14" s="75">
-        <v>-34</v>
+        <v>-864</v>
       </c>
       <c r="AL14" s="77">
-        <v>43805</v>
+        <v>1043511</v>
       </c>
     </row>
     <row r="15">
@@ -2910,94 +2910,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>25793</v>
+        <v>753786</v>
       </c>
       <c r="C15" s="7">
-        <v>20839</v>
+        <v>610760</v>
       </c>
       <c r="D15" s="9">
-        <v>4954</v>
+        <v>143026</v>
       </c>
       <c r="E15" s="11">
-        <v>34495</v>
+        <v>1019430</v>
       </c>
       <c r="F15" s="13">
-        <v>24520</v>
+        <v>737145</v>
       </c>
       <c r="G15" s="15">
-        <v>9975</v>
+        <v>282286</v>
       </c>
       <c r="H15" s="17">
-        <v>5779</v>
+        <v>176385</v>
       </c>
       <c r="I15" s="19">
-        <v>20844</v>
+        <v>605572</v>
       </c>
       <c r="J15" s="21">
-        <v>-15065</v>
+        <v>-429188</v>
       </c>
       <c r="K15" s="23">
-        <v>1594</v>
+        <v>48736</v>
       </c>
       <c r="L15" s="25">
-        <v>2459</v>
+        <v>72181</v>
       </c>
       <c r="M15" s="27">
-        <v>-865</v>
+        <v>-23445</v>
       </c>
       <c r="N15" s="29">
-        <v>156</v>
+        <v>4865</v>
       </c>
       <c r="O15" s="31">
-        <v>112</v>
+        <v>3472</v>
       </c>
       <c r="P15" s="33">
-        <v>44</v>
+        <v>1393</v>
       </c>
       <c r="Q15" s="35">
-        <v>503</v>
+        <v>15374</v>
       </c>
       <c r="R15" s="37">
-        <v>451</v>
+        <v>13443</v>
       </c>
       <c r="S15" s="39">
-        <v>52</v>
+        <v>1931</v>
       </c>
       <c r="T15" s="41">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="U15" s="43">
-        <v>14765</v>
+        <v>423846</v>
       </c>
       <c r="V15" s="45">
-        <v>-14763</v>
+        <v>-423749</v>
       </c>
       <c r="W15" s="47">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="X15" s="49">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Y15" s="51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z15" s="53">
-        <v>1173</v>
+        <v>35892</v>
       </c>
       <c r="AA15" s="55">
-        <v>1899</v>
+        <v>57110</v>
       </c>
       <c r="AB15" s="57">
-        <v>-725</v>
+        <v>-21218</v>
       </c>
       <c r="AC15" s="59">
-        <v>2348</v>
+        <v>71386</v>
       </c>
       <c r="AD15" s="61">
-        <v>1157</v>
+        <v>35490</v>
       </c>
       <c r="AE15" s="63">
-        <v>1191</v>
+        <v>35896</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>259</v>
+        <v>7590</v>
       </c>
       <c r="AJ15" s="73">
-        <v>124</v>
+        <v>3714</v>
       </c>
       <c r="AK15" s="75">
-        <v>135</v>
+        <v>3876</v>
       </c>
       <c r="AL15" s="77">
-        <v>66327</v>
+        <v>1957190</v>
       </c>
     </row>
     <row r="16">
@@ -3026,94 +3026,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>9739</v>
+        <v>296204</v>
       </c>
       <c r="C16" s="7">
-        <v>10460</v>
+        <v>316975</v>
       </c>
       <c r="D16" s="9">
-        <v>-721</v>
+        <v>-20772</v>
       </c>
       <c r="E16" s="11">
-        <v>12638</v>
+        <v>384007</v>
       </c>
       <c r="F16" s="13">
-        <v>12779</v>
+        <v>390522</v>
       </c>
       <c r="G16" s="15">
-        <v>-141</v>
+        <v>-6516</v>
       </c>
       <c r="H16" s="17">
-        <v>4880</v>
+        <v>150039</v>
       </c>
       <c r="I16" s="19">
-        <v>4029</v>
+        <v>123067</v>
       </c>
       <c r="J16" s="21">
-        <v>851</v>
+        <v>26972</v>
       </c>
       <c r="K16" s="23">
-        <v>1400</v>
+        <v>42699</v>
       </c>
       <c r="L16" s="25">
-        <v>1560</v>
+        <v>47775</v>
       </c>
       <c r="M16" s="27">
-        <v>-160</v>
+        <v>-5076</v>
       </c>
       <c r="N16" s="29">
-        <v>224</v>
+        <v>6877</v>
       </c>
       <c r="O16" s="31">
-        <v>204</v>
+        <v>6262</v>
       </c>
       <c r="P16" s="33">
-        <v>20</v>
+        <v>615</v>
       </c>
       <c r="Q16" s="35">
-        <v>442</v>
+        <v>13648</v>
       </c>
       <c r="R16" s="37">
-        <v>255</v>
+        <v>7709</v>
       </c>
       <c r="S16" s="39">
-        <v>187</v>
+        <v>5939</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
       </c>
       <c r="U16" s="43">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="V16" s="45">
-        <v>-4</v>
+        <v>-122</v>
       </c>
       <c r="W16" s="47">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="X16" s="49">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="Y16" s="51">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="Z16" s="53">
-        <v>1789</v>
+        <v>55051</v>
       </c>
       <c r="AA16" s="55">
-        <v>1054</v>
+        <v>32146</v>
       </c>
       <c r="AB16" s="57">
-        <v>735</v>
+        <v>22905</v>
       </c>
       <c r="AC16" s="59">
-        <v>1017</v>
+        <v>31556</v>
       </c>
       <c r="AD16" s="61">
-        <v>948</v>
+        <v>28966</v>
       </c>
       <c r="AE16" s="63">
-        <v>68</v>
+        <v>2590</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3125,16 +3125,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>71</v>
+        <v>2133</v>
       </c>
       <c r="AJ16" s="73">
-        <v>60</v>
+        <v>1818</v>
       </c>
       <c r="AK16" s="75">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="AL16" s="77">
-        <v>27327</v>
+        <v>832383</v>
       </c>
     </row>
     <row r="17">
@@ -3142,94 +3142,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>11634</v>
+        <v>431682</v>
       </c>
       <c r="C17" s="7">
-        <v>22356</v>
+        <v>835949</v>
       </c>
       <c r="D17" s="9">
-        <v>-10722</v>
+        <v>-404267</v>
       </c>
       <c r="E17" s="11">
-        <v>19965</v>
+        <v>710088</v>
       </c>
       <c r="F17" s="13">
-        <v>15773</v>
+        <v>566639</v>
       </c>
       <c r="G17" s="15">
-        <v>4192</v>
+        <v>143449</v>
       </c>
       <c r="H17" s="17">
-        <v>13247</v>
+        <v>505134</v>
       </c>
       <c r="I17" s="19">
-        <v>6716</v>
+        <v>244461</v>
       </c>
       <c r="J17" s="21">
-        <v>6531</v>
+        <v>260673</v>
       </c>
       <c r="K17" s="23">
-        <v>2265</v>
+        <v>81532</v>
       </c>
       <c r="L17" s="25">
-        <v>2299</v>
+        <v>85993</v>
       </c>
       <c r="M17" s="27">
-        <v>-33</v>
+        <v>-4461</v>
       </c>
       <c r="N17" s="29">
-        <v>1192</v>
+        <v>47694</v>
       </c>
       <c r="O17" s="31">
-        <v>197</v>
+        <v>7266</v>
       </c>
       <c r="P17" s="33">
-        <v>996</v>
+        <v>40428</v>
       </c>
       <c r="Q17" s="35">
-        <v>4047</v>
+        <v>164281</v>
       </c>
       <c r="R17" s="37">
-        <v>456</v>
+        <v>16431</v>
       </c>
       <c r="S17" s="39">
-        <v>3591</v>
+        <v>147850</v>
       </c>
       <c r="T17" s="41">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="U17" s="43">
-        <v>14</v>
+        <v>508</v>
       </c>
       <c r="V17" s="45">
-        <v>-9</v>
+        <v>-310</v>
       </c>
       <c r="W17" s="47">
-        <v>8</v>
+        <v>307</v>
       </c>
       <c r="X17" s="49">
-        <v>10</v>
+        <v>368</v>
       </c>
       <c r="Y17" s="51">
-        <v>-2</v>
+        <v>-61</v>
       </c>
       <c r="Z17" s="53">
-        <v>4499</v>
+        <v>164773</v>
       </c>
       <c r="AA17" s="55">
-        <v>1776</v>
+        <v>63723</v>
       </c>
       <c r="AB17" s="57">
-        <v>2723</v>
+        <v>101049</v>
       </c>
       <c r="AC17" s="59">
-        <v>1230</v>
+        <v>46349</v>
       </c>
       <c r="AD17" s="61">
-        <v>1965</v>
+        <v>70171</v>
       </c>
       <c r="AE17" s="63">
-        <v>-734</v>
+        <v>-23823</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>137</v>
+        <v>4855</v>
       </c>
       <c r="AJ17" s="73">
-        <v>138</v>
+        <v>4711</v>
       </c>
       <c r="AK17" s="75">
-        <v>-1</v>
+        <v>144</v>
       </c>
       <c r="AL17" s="77">
-        <v>44983</v>
+        <v>1651760</v>
       </c>
     </row>
     <row r="18">
@@ -3258,94 +3258,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>12600</v>
+        <v>506069</v>
       </c>
       <c r="C18" s="7">
-        <v>15927</v>
+        <v>638767</v>
       </c>
       <c r="D18" s="9">
-        <v>-3327</v>
+        <v>-132698</v>
       </c>
       <c r="E18" s="11">
-        <v>11751</v>
+        <v>469565</v>
       </c>
       <c r="F18" s="13">
-        <v>9581</v>
+        <v>383673</v>
       </c>
       <c r="G18" s="15">
-        <v>2170</v>
+        <v>85892</v>
       </c>
       <c r="H18" s="17">
-        <v>4615</v>
+        <v>185642</v>
       </c>
       <c r="I18" s="19">
-        <v>3531</v>
+        <v>141851</v>
       </c>
       <c r="J18" s="21">
-        <v>1083</v>
+        <v>43791</v>
       </c>
       <c r="K18" s="23">
-        <v>910</v>
+        <v>36402</v>
       </c>
       <c r="L18" s="25">
-        <v>747</v>
+        <v>29959</v>
       </c>
       <c r="M18" s="27">
-        <v>164</v>
+        <v>6443</v>
       </c>
       <c r="N18" s="29">
-        <v>130</v>
+        <v>5297</v>
       </c>
       <c r="O18" s="31">
-        <v>70</v>
+        <v>2809</v>
       </c>
       <c r="P18" s="33">
-        <v>60</v>
+        <v>2488</v>
       </c>
       <c r="Q18" s="35">
-        <v>469</v>
+        <v>18962</v>
       </c>
       <c r="R18" s="37">
-        <v>341</v>
+        <v>13812</v>
       </c>
       <c r="S18" s="39">
-        <v>128</v>
+        <v>5150</v>
       </c>
       <c r="T18" s="41">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="U18" s="43">
         <v>0</v>
       </c>
       <c r="V18" s="45">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="W18" s="47">
         <v>0</v>
       </c>
       <c r="X18" s="49">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="Y18" s="51">
-        <v>-8</v>
+        <v>-310</v>
       </c>
       <c r="Z18" s="53">
-        <v>2116</v>
+        <v>84971</v>
       </c>
       <c r="AA18" s="55">
-        <v>1292</v>
+        <v>51982</v>
       </c>
       <c r="AB18" s="57">
-        <v>823</v>
+        <v>32989</v>
       </c>
       <c r="AC18" s="59">
-        <v>977</v>
+        <v>39502</v>
       </c>
       <c r="AD18" s="61">
-        <v>1074</v>
+        <v>42979</v>
       </c>
       <c r="AE18" s="63">
-        <v>-97</v>
+        <v>-3477</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>104</v>
+        <v>4244</v>
       </c>
       <c r="AJ18" s="73">
-        <v>30</v>
+        <v>1229</v>
       </c>
       <c r="AK18" s="75">
-        <v>73</v>
+        <v>3015</v>
       </c>
       <c r="AL18" s="77">
-        <v>29070</v>
+        <v>1165519</v>
       </c>
     </row>
     <row r="19">
@@ -3374,94 +3374,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>5853</v>
+        <v>265991</v>
       </c>
       <c r="C19" s="7">
-        <v>7749</v>
+        <v>355092</v>
       </c>
       <c r="D19" s="9">
-        <v>-1896</v>
+        <v>-89101</v>
       </c>
       <c r="E19" s="11">
-        <v>11454</v>
+        <v>526264</v>
       </c>
       <c r="F19" s="13">
-        <v>7159</v>
+        <v>327843</v>
       </c>
       <c r="G19" s="15">
-        <v>4295</v>
+        <v>198420</v>
       </c>
       <c r="H19" s="17">
-        <v>2407</v>
+        <v>108958</v>
       </c>
       <c r="I19" s="19">
-        <v>4838</v>
+        <v>219606</v>
       </c>
       <c r="J19" s="21">
-        <v>-2431</v>
+        <v>-110648</v>
       </c>
       <c r="K19" s="23">
-        <v>566</v>
+        <v>25808</v>
       </c>
       <c r="L19" s="25">
-        <v>914</v>
+        <v>42092</v>
       </c>
       <c r="M19" s="27">
-        <v>-348</v>
+        <v>-16284</v>
       </c>
       <c r="N19" s="29">
-        <v>87</v>
+        <v>4182</v>
       </c>
       <c r="O19" s="31">
-        <v>242</v>
+        <v>10985</v>
       </c>
       <c r="P19" s="33">
-        <v>-155</v>
+        <v>-6803</v>
       </c>
       <c r="Q19" s="35">
-        <v>155</v>
+        <v>7123</v>
       </c>
       <c r="R19" s="37">
-        <v>953</v>
+        <v>42917</v>
       </c>
       <c r="S19" s="39">
-        <v>-798</v>
+        <v>-35794</v>
       </c>
       <c r="T19" s="41">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="U19" s="43">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="V19" s="45">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="W19" s="47">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="X19" s="49">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="Y19" s="51">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="Z19" s="53">
-        <v>1416</v>
+        <v>63848</v>
       </c>
       <c r="AA19" s="55">
-        <v>1222</v>
+        <v>56185</v>
       </c>
       <c r="AB19" s="57">
-        <v>194</v>
+        <v>7663</v>
       </c>
       <c r="AC19" s="59">
-        <v>182</v>
+        <v>7904</v>
       </c>
       <c r="AD19" s="61">
-        <v>1506</v>
+        <v>67351</v>
       </c>
       <c r="AE19" s="63">
-        <v>-1324</v>
+        <v>-59446</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3473,16 +3473,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>231</v>
+        <v>10685</v>
       </c>
       <c r="AJ19" s="73">
-        <v>198</v>
+        <v>9356</v>
       </c>
       <c r="AK19" s="75">
-        <v>32</v>
+        <v>1329</v>
       </c>
       <c r="AL19" s="77">
-        <v>19945</v>
+        <v>911898</v>
       </c>
     </row>
     <row r="20">
@@ -3490,94 +3490,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>9575</v>
+        <v>477451</v>
       </c>
       <c r="C20" s="7">
-        <v>8914</v>
+        <v>442878</v>
       </c>
       <c r="D20" s="9">
-        <v>661</v>
+        <v>34573</v>
       </c>
       <c r="E20" s="11">
-        <v>12155</v>
+        <v>612169</v>
       </c>
       <c r="F20" s="13">
-        <v>14146</v>
+        <v>714236</v>
       </c>
       <c r="G20" s="15">
-        <v>-1990</v>
+        <v>-102067</v>
       </c>
       <c r="H20" s="17">
-        <v>3589</v>
+        <v>180774</v>
       </c>
       <c r="I20" s="19">
-        <v>2271</v>
+        <v>113816</v>
       </c>
       <c r="J20" s="21">
-        <v>1318</v>
+        <v>66958</v>
       </c>
       <c r="K20" s="23">
-        <v>825</v>
+        <v>41573</v>
       </c>
       <c r="L20" s="25">
-        <v>727</v>
+        <v>36379</v>
       </c>
       <c r="M20" s="27">
-        <v>98</v>
+        <v>5194</v>
       </c>
       <c r="N20" s="29">
-        <v>155</v>
+        <v>7727</v>
       </c>
       <c r="O20" s="31">
-        <v>146</v>
+        <v>7379</v>
       </c>
       <c r="P20" s="33">
-        <v>9</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="35">
-        <v>406</v>
+        <v>20411</v>
       </c>
       <c r="R20" s="37">
-        <v>261</v>
+        <v>13056</v>
       </c>
       <c r="S20" s="39">
-        <v>145</v>
+        <v>7354</v>
       </c>
       <c r="T20" s="41">
+        <v>42</v>
+      </c>
+      <c r="U20" s="43">
         <v>1</v>
       </c>
-      <c r="U20" s="43">
-        <v>0</v>
-      </c>
       <c r="V20" s="45">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X20" s="49">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="Y20" s="51">
-        <v>-1</v>
+        <v>-63</v>
       </c>
       <c r="Z20" s="53">
-        <v>1521</v>
+        <v>76304</v>
       </c>
       <c r="AA20" s="55">
-        <v>631</v>
+        <v>31565</v>
       </c>
       <c r="AB20" s="57">
-        <v>890</v>
+        <v>44739</v>
       </c>
       <c r="AC20" s="59">
-        <v>681</v>
+        <v>34693</v>
       </c>
       <c r="AD20" s="61">
-        <v>505</v>
+        <v>25346</v>
       </c>
       <c r="AE20" s="63">
-        <v>176</v>
+        <v>9347</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3589,16 +3589,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>121</v>
+        <v>6090</v>
       </c>
       <c r="AJ20" s="73">
-        <v>109</v>
+        <v>5554</v>
       </c>
       <c r="AK20" s="75">
-        <v>12</v>
+        <v>535</v>
       </c>
       <c r="AL20" s="77">
-        <v>25440</v>
+        <v>1276483</v>
       </c>
     </row>
     <row r="21">
@@ -3606,94 +3606,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>18350</v>
+        <v>822621</v>
       </c>
       <c r="C21" s="7">
-        <v>13052</v>
+        <v>585012</v>
       </c>
       <c r="D21" s="9">
-        <v>5297</v>
+        <v>237609</v>
       </c>
       <c r="E21" s="11">
-        <v>23847</v>
+        <v>1081068</v>
       </c>
       <c r="F21" s="13">
-        <v>26957</v>
+        <v>1230557</v>
       </c>
       <c r="G21" s="15">
-        <v>-3109</v>
+        <v>-149488</v>
       </c>
       <c r="H21" s="17">
-        <v>5344</v>
+        <v>243308</v>
       </c>
       <c r="I21" s="19">
-        <v>7643</v>
+        <v>336595</v>
       </c>
       <c r="J21" s="21">
-        <v>-2298</v>
+        <v>-93287</v>
       </c>
       <c r="K21" s="23">
-        <v>741</v>
+        <v>33955</v>
       </c>
       <c r="L21" s="25">
-        <v>1289</v>
+        <v>57395</v>
       </c>
       <c r="M21" s="27">
-        <v>-548</v>
+        <v>-23440</v>
       </c>
       <c r="N21" s="29">
-        <v>319</v>
+        <v>14273</v>
       </c>
       <c r="O21" s="31">
-        <v>309</v>
+        <v>13731</v>
       </c>
       <c r="P21" s="33">
-        <v>10</v>
+        <v>542</v>
       </c>
       <c r="Q21" s="35">
-        <v>619</v>
+        <v>28099</v>
       </c>
       <c r="R21" s="37">
-        <v>1494</v>
+        <v>65335</v>
       </c>
       <c r="S21" s="39">
-        <v>-874</v>
+        <v>-37236</v>
       </c>
       <c r="T21" s="41">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="U21" s="43">
-        <v>25</v>
+        <v>1033</v>
       </c>
       <c r="V21" s="45">
-        <v>-24</v>
+        <v>-994</v>
       </c>
       <c r="W21" s="47">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="X21" s="49">
-        <v>16</v>
+        <v>699</v>
       </c>
       <c r="Y21" s="51">
-        <v>-12</v>
+        <v>-489</v>
       </c>
       <c r="Z21" s="53">
-        <v>2675</v>
+        <v>122131</v>
       </c>
       <c r="AA21" s="55">
-        <v>1492</v>
+        <v>65701</v>
       </c>
       <c r="AB21" s="57">
-        <v>1183</v>
+        <v>56430</v>
       </c>
       <c r="AC21" s="59">
-        <v>984</v>
+        <v>44602</v>
       </c>
       <c r="AD21" s="61">
-        <v>3019</v>
+        <v>132702</v>
       </c>
       <c r="AE21" s="63">
-        <v>-2034</v>
+        <v>-88100</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>319</v>
+        <v>14528</v>
       </c>
       <c r="AJ21" s="73">
-        <v>209</v>
+        <v>9361</v>
       </c>
       <c r="AK21" s="75">
-        <v>110</v>
+        <v>5167</v>
       </c>
       <c r="AL21" s="77">
-        <v>47860</v>
+        <v>2161525</v>
       </c>
     </row>
     <row r="22">
@@ -3722,94 +3722,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>14018</v>
+        <v>647629</v>
       </c>
       <c r="C22" s="7">
-        <v>25110</v>
+        <v>1180328</v>
       </c>
       <c r="D22" s="9">
-        <v>-11092</v>
+        <v>-532699</v>
       </c>
       <c r="E22" s="11">
-        <v>38497</v>
+        <v>1789513</v>
       </c>
       <c r="F22" s="13">
-        <v>27198</v>
+        <v>1234374</v>
       </c>
       <c r="G22" s="15">
-        <v>11298</v>
+        <v>555139</v>
       </c>
       <c r="H22" s="17">
-        <v>3947</v>
+        <v>180440</v>
       </c>
       <c r="I22" s="19">
-        <v>4309</v>
+        <v>209882</v>
       </c>
       <c r="J22" s="21">
-        <v>-362</v>
+        <v>-29443</v>
       </c>
       <c r="K22" s="23">
-        <v>735</v>
+        <v>33009</v>
       </c>
       <c r="L22" s="25">
-        <v>911</v>
+        <v>44917</v>
       </c>
       <c r="M22" s="27">
-        <v>-175</v>
+        <v>-11909</v>
       </c>
       <c r="N22" s="29">
-        <v>106</v>
+        <v>4736</v>
       </c>
       <c r="O22" s="31">
-        <v>359</v>
+        <v>17672</v>
       </c>
       <c r="P22" s="33">
-        <v>-253</v>
+        <v>-12936</v>
       </c>
       <c r="Q22" s="35">
-        <v>354</v>
+        <v>16806</v>
       </c>
       <c r="R22" s="37">
-        <v>557</v>
+        <v>26955</v>
       </c>
       <c r="S22" s="39">
-        <v>-203</v>
+        <v>-10149</v>
       </c>
       <c r="T22" s="41">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U22" s="43">
-        <v>10</v>
+        <v>418</v>
       </c>
       <c r="V22" s="45">
-        <v>-9</v>
+        <v>-392</v>
       </c>
       <c r="W22" s="47">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="X22" s="49">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="Y22" s="51">
-        <v>-9</v>
+        <v>-410</v>
       </c>
       <c r="Z22" s="53">
-        <v>1935</v>
+        <v>86876</v>
       </c>
       <c r="AA22" s="55">
-        <v>1566</v>
+        <v>75780</v>
       </c>
       <c r="AB22" s="57">
-        <v>369</v>
+        <v>11096</v>
       </c>
       <c r="AC22" s="59">
-        <v>813</v>
+        <v>38869</v>
       </c>
       <c r="AD22" s="61">
-        <v>895</v>
+        <v>43612</v>
       </c>
       <c r="AE22" s="63">
-        <v>-82</v>
+        <v>-4743</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>246</v>
+        <v>10993</v>
       </c>
       <c r="AJ22" s="73">
-        <v>90</v>
+        <v>3990</v>
       </c>
       <c r="AK22" s="75">
-        <v>156</v>
+        <v>7003</v>
       </c>
       <c r="AL22" s="77">
-        <v>56708</v>
+        <v>2628574</v>
       </c>
     </row>
     <row r="23">
@@ -3838,94 +3838,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>21895</v>
+        <v>1393389</v>
       </c>
       <c r="C23" s="7">
-        <v>17392</v>
+        <v>1107635</v>
       </c>
       <c r="D23" s="9">
-        <v>4503</v>
+        <v>285754</v>
       </c>
       <c r="E23" s="11">
-        <v>15497</v>
+        <v>982989</v>
       </c>
       <c r="F23" s="13">
-        <v>12813</v>
+        <v>817774</v>
       </c>
       <c r="G23" s="15">
-        <v>2684</v>
+        <v>165215</v>
       </c>
       <c r="H23" s="17">
-        <v>4041</v>
+        <v>258069</v>
       </c>
       <c r="I23" s="19">
-        <v>3655</v>
+        <v>230494</v>
       </c>
       <c r="J23" s="21">
-        <v>387</v>
+        <v>27575</v>
       </c>
       <c r="K23" s="23">
-        <v>945</v>
+        <v>59783</v>
       </c>
       <c r="L23" s="25">
-        <v>806</v>
+        <v>50562</v>
       </c>
       <c r="M23" s="27">
-        <v>139</v>
+        <v>9221</v>
       </c>
       <c r="N23" s="29">
-        <v>254</v>
+        <v>16253</v>
       </c>
       <c r="O23" s="31">
-        <v>184</v>
+        <v>11558</v>
       </c>
       <c r="P23" s="33">
-        <v>70</v>
+        <v>4695</v>
       </c>
       <c r="Q23" s="35">
-        <v>698</v>
+        <v>44867</v>
       </c>
       <c r="R23" s="37">
-        <v>310</v>
+        <v>19608</v>
       </c>
       <c r="S23" s="39">
-        <v>388</v>
+        <v>25259</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
       </c>
       <c r="U23" s="43">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="V23" s="45">
-        <v>-1</v>
+        <v>-61</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X23" s="49">
-        <v>12</v>
+        <v>741</v>
       </c>
       <c r="Y23" s="51">
-        <v>-12</v>
+        <v>-729</v>
       </c>
       <c r="Z23" s="53">
-        <v>1695</v>
+        <v>107983</v>
       </c>
       <c r="AA23" s="55">
-        <v>1171</v>
+        <v>74047</v>
       </c>
       <c r="AB23" s="57">
-        <v>524</v>
+        <v>33936</v>
       </c>
       <c r="AC23" s="59">
-        <v>449</v>
+        <v>29171</v>
       </c>
       <c r="AD23" s="61">
-        <v>1171</v>
+        <v>73918</v>
       </c>
       <c r="AE23" s="63">
-        <v>-723</v>
+        <v>-44747</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3937,16 +3937,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>101</v>
+        <v>6434</v>
       </c>
       <c r="AJ23" s="73">
-        <v>7674</v>
+        <v>484977</v>
       </c>
       <c r="AK23" s="75">
-        <v>-7574</v>
+        <v>-478543</v>
       </c>
       <c r="AL23" s="77">
-        <v>41534</v>
+        <v>2640881</v>
       </c>
     </row>
     <row r="24">
@@ -3954,94 +3954,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>15760</v>
+        <v>993553</v>
       </c>
       <c r="C24" s="7">
-        <v>13797</v>
+        <v>873281</v>
       </c>
       <c r="D24" s="9">
-        <v>1963</v>
+        <v>120273</v>
       </c>
       <c r="E24" s="11">
-        <v>25280</v>
+        <v>1578401</v>
       </c>
       <c r="F24" s="13">
-        <v>27748</v>
+        <v>1754130</v>
       </c>
       <c r="G24" s="15">
-        <v>-2467</v>
+        <v>-175729</v>
       </c>
       <c r="H24" s="17">
-        <v>6533</v>
+        <v>413991</v>
       </c>
       <c r="I24" s="19">
-        <v>5818</v>
+        <v>346283</v>
       </c>
       <c r="J24" s="21">
-        <v>715</v>
+        <v>67708</v>
       </c>
       <c r="K24" s="23">
-        <v>899</v>
+        <v>55910</v>
       </c>
       <c r="L24" s="25">
-        <v>1279</v>
+        <v>77929</v>
       </c>
       <c r="M24" s="27">
-        <v>-381</v>
+        <v>-22019</v>
       </c>
       <c r="N24" s="29">
-        <v>254</v>
+        <v>15494</v>
       </c>
       <c r="O24" s="31">
-        <v>258</v>
+        <v>15451</v>
       </c>
       <c r="P24" s="33">
-        <v>-4</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="35">
-        <v>332</v>
+        <v>20585</v>
       </c>
       <c r="R24" s="37">
-        <v>962</v>
+        <v>55665</v>
       </c>
       <c r="S24" s="39">
-        <v>-630</v>
+        <v>-35080</v>
       </c>
       <c r="T24" s="41">
-        <v>8</v>
+        <v>501</v>
       </c>
       <c r="U24" s="43">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="V24" s="45">
-        <v>6</v>
+        <v>375</v>
       </c>
       <c r="W24" s="47">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="X24" s="49">
-        <v>85</v>
+        <v>4747</v>
       </c>
       <c r="Y24" s="51">
-        <v>-84</v>
+        <v>-4712</v>
       </c>
       <c r="Z24" s="53">
-        <v>4166</v>
+        <v>265196</v>
       </c>
       <c r="AA24" s="55">
-        <v>1172</v>
+        <v>70723</v>
       </c>
       <c r="AB24" s="57">
-        <v>2994</v>
+        <v>194474</v>
       </c>
       <c r="AC24" s="59">
-        <v>874</v>
+        <v>56272</v>
       </c>
       <c r="AD24" s="61">
-        <v>2060</v>
+        <v>121643</v>
       </c>
       <c r="AE24" s="63">
-        <v>-1185</v>
+        <v>-65371</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>113</v>
+        <v>6942</v>
       </c>
       <c r="AJ24" s="73">
-        <v>324</v>
+        <v>19194</v>
       </c>
       <c r="AK24" s="75">
-        <v>-211</v>
+        <v>-12252</v>
       </c>
       <c r="AL24" s="77">
-        <v>47687</v>
+        <v>2992888</v>
       </c>
     </row>
     <row r="25">
@@ -4070,94 +4070,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>6553</v>
+        <v>387810</v>
       </c>
       <c r="C25" s="7">
-        <v>10092</v>
+        <v>600393</v>
       </c>
       <c r="D25" s="9">
-        <v>-3539</v>
+        <v>-212583</v>
       </c>
       <c r="E25" s="11">
-        <v>19988</v>
+        <v>1207068</v>
       </c>
       <c r="F25" s="13">
-        <v>17925</v>
+        <v>1084554</v>
       </c>
       <c r="G25" s="15">
-        <v>2063</v>
+        <v>122514</v>
       </c>
       <c r="H25" s="17">
-        <v>3692</v>
+        <v>223199</v>
       </c>
       <c r="I25" s="19">
-        <v>2263</v>
+        <v>135854</v>
       </c>
       <c r="J25" s="21">
-        <v>1429</v>
+        <v>87345</v>
       </c>
       <c r="K25" s="23">
-        <v>673</v>
+        <v>39962</v>
       </c>
       <c r="L25" s="25">
-        <v>651</v>
+        <v>39371</v>
       </c>
       <c r="M25" s="27">
-        <v>22</v>
+        <v>591</v>
       </c>
       <c r="N25" s="29">
-        <v>99</v>
+        <v>5951</v>
       </c>
       <c r="O25" s="31">
-        <v>173</v>
+        <v>10342</v>
       </c>
       <c r="P25" s="33">
-        <v>-74</v>
+        <v>-4391</v>
       </c>
       <c r="Q25" s="35">
+        <v>14496</v>
+      </c>
+      <c r="R25" s="37">
+        <v>17902</v>
+      </c>
+      <c r="S25" s="39">
+        <v>-3407</v>
+      </c>
+      <c r="T25" s="41">
+        <v>162</v>
+      </c>
+      <c r="U25" s="43">
         <v>238</v>
       </c>
-      <c r="R25" s="37">
-        <v>300</v>
-      </c>
-      <c r="S25" s="39">
-        <v>-62</v>
-      </c>
-      <c r="T25" s="41">
-        <v>3</v>
-      </c>
-      <c r="U25" s="43">
-        <v>4</v>
-      </c>
       <c r="V25" s="45">
-        <v>-1</v>
+        <v>-77</v>
       </c>
       <c r="W25" s="47">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="X25" s="49">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="Y25" s="51">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="Z25" s="53">
-        <v>2377</v>
+        <v>144674</v>
       </c>
       <c r="AA25" s="55">
-        <v>723</v>
+        <v>42975</v>
       </c>
       <c r="AB25" s="57">
-        <v>1654</v>
+        <v>101699</v>
       </c>
       <c r="AC25" s="59">
-        <v>298</v>
+        <v>17631</v>
       </c>
       <c r="AD25" s="61">
-        <v>408</v>
+        <v>24797</v>
       </c>
       <c r="AE25" s="63">
-        <v>-110</v>
+        <v>-7165</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4169,16 +4169,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>122</v>
+        <v>7361</v>
       </c>
       <c r="AJ25" s="73">
-        <v>75</v>
+        <v>4638</v>
       </c>
       <c r="AK25" s="75">
-        <v>47</v>
+        <v>2723</v>
       </c>
       <c r="AL25" s="77">
-        <v>30355</v>
+        <v>1825438</v>
       </c>
     </row>
     <row r="26">
@@ -4186,94 +4186,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>23293</v>
+        <v>1780220</v>
       </c>
       <c r="C26" s="7">
-        <v>22362</v>
+        <v>1663693</v>
       </c>
       <c r="D26" s="9">
-        <v>930</v>
+        <v>116526</v>
       </c>
       <c r="E26" s="11">
-        <v>62476</v>
+        <v>4614266</v>
       </c>
       <c r="F26" s="13">
-        <v>54374</v>
+        <v>3995692</v>
       </c>
       <c r="G26" s="15">
-        <v>8102</v>
+        <v>618574</v>
       </c>
       <c r="H26" s="17">
-        <v>10302</v>
+        <v>769732</v>
       </c>
       <c r="I26" s="19">
-        <v>19450</v>
+        <v>1513366</v>
       </c>
       <c r="J26" s="21">
-        <v>-9147</v>
+        <v>-743634</v>
       </c>
       <c r="K26" s="23">
-        <v>1061</v>
+        <v>77656</v>
       </c>
       <c r="L26" s="25">
-        <v>1694</v>
+        <v>121629</v>
       </c>
       <c r="M26" s="27">
-        <v>-633</v>
+        <v>-43973</v>
       </c>
       <c r="N26" s="29">
-        <v>914</v>
+        <v>67614</v>
       </c>
       <c r="O26" s="31">
-        <v>314</v>
+        <v>22445</v>
       </c>
       <c r="P26" s="33">
-        <v>600</v>
+        <v>45169</v>
       </c>
       <c r="Q26" s="35">
-        <v>2527</v>
+        <v>186029</v>
       </c>
       <c r="R26" s="37">
-        <v>702</v>
+        <v>51680</v>
       </c>
       <c r="S26" s="39">
-        <v>1826</v>
+        <v>134349</v>
       </c>
       <c r="T26" s="41">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="U26" s="43">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="V26" s="45">
-        <v>-2</v>
+        <v>-147</v>
       </c>
       <c r="W26" s="47">
-        <v>6</v>
+        <v>417</v>
       </c>
       <c r="X26" s="49">
-        <v>27</v>
+        <v>2069</v>
       </c>
       <c r="Y26" s="51">
-        <v>-21</v>
+        <v>-1652</v>
       </c>
       <c r="Z26" s="53">
-        <v>5128</v>
+        <v>388876</v>
       </c>
       <c r="AA26" s="55">
-        <v>14699</v>
+        <v>1168782</v>
       </c>
       <c r="AB26" s="57">
-        <v>-9571</v>
+        <v>-779907</v>
       </c>
       <c r="AC26" s="59">
-        <v>665</v>
+        <v>48985</v>
       </c>
       <c r="AD26" s="61">
-        <v>2011</v>
+        <v>146458</v>
       </c>
       <c r="AE26" s="63">
-        <v>-1345</v>
+        <v>-97473</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4285,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>389</v>
+        <v>28734</v>
       </c>
       <c r="AJ26" s="73">
-        <v>274</v>
+        <v>20201</v>
       </c>
       <c r="AK26" s="75">
-        <v>115</v>
+        <v>8533</v>
       </c>
       <c r="AL26" s="77">
-        <v>96460</v>
+        <v>7192951</v>
       </c>
     </row>
     <row r="27">
@@ -4302,94 +4302,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="6">
-        <v>26181</v>
+        <v>1975588</v>
       </c>
       <c r="C27" s="8">
-        <v>18991</v>
+        <v>1496190</v>
       </c>
       <c r="D27" s="10">
-        <v>7190</v>
+        <v>479398</v>
       </c>
       <c r="E27" s="12">
-        <v>233223</v>
+        <v>18322390</v>
       </c>
       <c r="F27" s="14">
-        <v>238395</v>
+        <v>18700164</v>
       </c>
       <c r="G27" s="16">
-        <v>-5172</v>
+        <v>-377774</v>
       </c>
       <c r="H27" s="18">
-        <v>11354</v>
+        <v>860648</v>
       </c>
       <c r="I27" s="20">
-        <v>5249</v>
+        <v>368108</v>
       </c>
       <c r="J27" s="22">
-        <v>6106</v>
+        <v>492540</v>
       </c>
       <c r="K27" s="24">
-        <v>358</v>
+        <v>26320</v>
       </c>
       <c r="L27" s="26">
-        <v>2456</v>
+        <v>161016</v>
       </c>
       <c r="M27" s="28">
-        <v>-2098</v>
+        <v>-134696</v>
       </c>
       <c r="N27" s="30">
-        <v>1011</v>
+        <v>74298</v>
       </c>
       <c r="O27" s="32">
-        <v>201</v>
+        <v>15830</v>
       </c>
       <c r="P27" s="34">
-        <v>809</v>
+        <v>58468</v>
       </c>
       <c r="Q27" s="36">
-        <v>1404</v>
+        <v>105719</v>
       </c>
       <c r="R27" s="38">
-        <v>671</v>
+        <v>50170</v>
       </c>
       <c r="S27" s="40">
-        <v>733</v>
+        <v>55550</v>
       </c>
       <c r="T27" s="42">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="U27" s="44">
-        <v>28</v>
+        <v>1686</v>
       </c>
       <c r="V27" s="46">
-        <v>-20</v>
+        <v>-1086</v>
       </c>
       <c r="W27" s="48">
-        <v>7</v>
+        <v>525</v>
       </c>
       <c r="X27" s="50">
-        <v>99</v>
+        <v>5555</v>
       </c>
       <c r="Y27" s="52">
-        <v>-92</v>
+        <v>-5031</v>
       </c>
       <c r="Z27" s="54">
-        <v>7804</v>
+        <v>601454</v>
       </c>
       <c r="AA27" s="56">
-        <v>713</v>
+        <v>59534</v>
       </c>
       <c r="AB27" s="58">
-        <v>7091</v>
+        <v>541921</v>
       </c>
       <c r="AC27" s="60">
-        <v>762</v>
+        <v>51733</v>
       </c>
       <c r="AD27" s="62">
-        <v>1081</v>
+        <v>74318</v>
       </c>
       <c r="AE27" s="64">
-        <v>-318</v>
+        <v>-22585</v>
       </c>
       <c r="AF27" s="66">
         <v>0</v>
@@ -4401,16 +4401,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="72">
-        <v>543</v>
+        <v>42041</v>
       </c>
       <c r="AJ27" s="74">
-        <v>8667</v>
+        <v>636206</v>
       </c>
       <c r="AK27" s="76">
-        <v>-8124</v>
+        <v>-594165</v>
       </c>
       <c r="AL27" s="78">
-        <v>271302</v>
+        <v>21200668</v>
       </c>
     </row>
   </sheetData>
